--- a/research/yearly-rebalance-2013-23.xlsx
+++ b/research/yearly-rebalance-2013-23.xlsx
@@ -18,7 +18,8 @@
     <sheet name="20-21" sheetId="8" state="visible" r:id="rId9"/>
     <sheet name="21-22" sheetId="9" state="visible" r:id="rId10"/>
     <sheet name="22-23" sheetId="10" state="visible" r:id="rId11"/>
-    <sheet name="result" sheetId="11" state="visible" r:id="rId12"/>
+    <sheet name="23-24" sheetId="11" state="visible" r:id="rId12"/>
+    <sheet name="result" sheetId="12" state="visible" r:id="rId13"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="67">
   <si>
     <t xml:space="preserve">S No.</t>
   </si>
@@ -221,6 +222,12 @@
     <t xml:space="preserve">TITAN</t>
   </si>
   <si>
+    <t xml:space="preserve">TIINDIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LINDEINDIA</t>
+  </si>
+  <si>
     <t xml:space="preserve">Principal</t>
   </si>
   <si>
@@ -393,11 +400,11 @@
   </sheetPr>
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="17.06640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="16.92"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="17.4"/>
@@ -976,11 +983,11 @@
   </sheetPr>
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D20" activeCellId="0" sqref="D20"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D25" activeCellId="0" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="19.265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="19.2890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="19.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="17.4"/>
@@ -1559,20 +1566,385 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:H23"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H11" activeCellId="0" sqref="H11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="19.2890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="19.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="17.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="16.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="19.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="9" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="917" style="0" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>3841.2</v>
+      </c>
+      <c r="D2" s="5" t="n">
+        <v>44928</v>
+      </c>
+      <c r="F2" s="5"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>2549.5</v>
+      </c>
+      <c r="D3" s="5" t="n">
+        <v>44928</v>
+      </c>
+      <c r="F3" s="5"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>1989.15</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>44928</v>
+      </c>
+      <c r="F4" s="5"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>3951.2</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>44928</v>
+      </c>
+      <c r="F5" s="5"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>4027.95</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>44928</v>
+      </c>
+      <c r="F6" s="5"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>2661.7</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>44928</v>
+      </c>
+      <c r="F7" s="5"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>6553.75</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>44928</v>
+      </c>
+      <c r="F8" s="5"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>4322.1</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>44928</v>
+      </c>
+      <c r="F9" s="5"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>2565.75</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>44928</v>
+      </c>
+      <c r="F10" s="5"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>8207.6</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>44928</v>
+      </c>
+      <c r="F11" s="5"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>3911.5</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>44928</v>
+      </c>
+      <c r="F12" s="5"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>2140.6</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>44928</v>
+      </c>
+      <c r="F13" s="5"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>2955.95</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>44928</v>
+      </c>
+      <c r="F14" s="5"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>1091.7</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>44928</v>
+      </c>
+      <c r="F15" s="5"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>2001.1</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>44928</v>
+      </c>
+      <c r="F16" s="5"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>970</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>44928</v>
+      </c>
+      <c r="F17" s="5"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>2785.3</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>44928</v>
+      </c>
+      <c r="F18" s="5"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>3540.45</v>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>44928</v>
+      </c>
+      <c r="F19" s="5"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>6300.4</v>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>44928</v>
+      </c>
+      <c r="F20" s="5"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>4122.4</v>
+      </c>
+      <c r="D21" s="5" t="n">
+        <v>44928</v>
+      </c>
+      <c r="F21" s="5"/>
+      <c r="G21" s="8"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G23" s="9" t="e">
+        <f aca="false">AVERAGE(G2:G22)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="I11" activeCellId="0" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1758,11 +2130,11 @@
   </sheetPr>
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B35" activeCellId="0" sqref="B35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="19.265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="19.2890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="19.14"/>
   </cols>
@@ -2360,11 +2732,11 @@
   </sheetPr>
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C27" activeCellId="0" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="19.265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="19.2890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="19.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1008" style="0" width="11.52"/>
@@ -2945,11 +3317,11 @@
   </sheetPr>
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G23" activeCellId="0" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="19.265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="19.2890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="19.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="17.4"/>
@@ -3534,11 +3906,11 @@
   </sheetPr>
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G23" activeCellId="0" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="19.265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="19.2890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="19.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="0" width="11.52"/>
@@ -4115,11 +4487,11 @@
   </sheetPr>
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G21" activeCellId="0" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="19.265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="19.2890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="19.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="969" style="0" width="11.52"/>
@@ -4696,11 +5068,11 @@
   </sheetPr>
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G16" activeCellId="0" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="19.265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="19.2890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="19.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="16.55"/>
@@ -5279,11 +5651,11 @@
   </sheetPr>
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G20" activeCellId="0" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="19.265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="19.2890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="19.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="17.4"/>
@@ -5864,11 +6236,11 @@
   </sheetPr>
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="19.265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="19.2890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="19.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="17.4"/>
